--- a/NFL-Paper-1-our-new-rework-attempt/2016-new-data.xlsx
+++ b/NFL-Paper-1-our-new-rework-attempt/2016-new-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/897de2ccfcc020ef/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sean1\OneDrive\Desktop\School\DS 340W\ds340wproject-main\NFL-Paper-1-our-new-rework-attempt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5FFE3E0-985C-4260-A3C5-E0D8CD7F0225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57AFE66-BAF3-499F-953E-448147D5F936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B8BBB71-C3A2-4357-BC0D-751284541184}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{8B8BBB71-C3A2-4357-BC0D-751284541184}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="436">
   <si>
     <t>Misc</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Yds</t>
   </si>
   <si>
-    <t>TD</t>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
@@ -1322,6 +1319,15 @@
   </si>
   <si>
     <t>Kalan Reed</t>
+  </si>
+  <si>
+    <t>PTD</t>
+  </si>
+  <si>
+    <t>RUTD</t>
+  </si>
+  <si>
+    <t>RECTD</t>
   </si>
 </sst>
 </file>
@@ -1832,13 +1838,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2221,83 +2227,83 @@
   <dimension ref="A1:AC255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5546875" customWidth="1"/>
-    <col min="12" max="12" width="5.109375" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
+    <row r="1" spans="1:29" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
       <c r="H1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="5"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="5"/>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="3"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5" t="s">
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-    </row>
-    <row r="2" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+    </row>
+    <row r="2" spans="1:29" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2347,10 +2353,10 @@
         <v>20</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>19</v>
@@ -2359,46 +2365,46 @@
         <v>20</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>21</v>
+        <v>434</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="X2" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1"/>
+    </row>
+    <row r="3" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="1"/>
-    </row>
-    <row r="3" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F3" s="2">
         <v>21</v>
@@ -2463,13 +2469,13 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2477,13 +2483,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2">
         <v>23</v>
@@ -2548,13 +2554,13 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2562,13 +2568,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F5" s="2">
         <v>21</v>
@@ -2635,13 +2641,13 @@
         <v>72</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2649,13 +2655,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F6" s="2">
         <v>21</v>
@@ -2720,13 +2726,13 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -2734,13 +2740,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F7" s="2">
         <v>21</v>
@@ -2809,13 +2815,13 @@
         <v>3</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2823,13 +2829,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F8" s="2">
         <v>22</v>
@@ -2894,13 +2900,13 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2908,13 +2914,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2">
         <v>22</v>
@@ -2981,13 +2987,13 @@
         <v>67.5</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2995,13 +3001,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2">
         <v>22</v>
@@ -3066,13 +3072,13 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -3080,13 +3086,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F11" s="2">
         <v>23</v>
@@ -3155,13 +3161,13 @@
         <v>66.5</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -3169,13 +3175,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2">
         <v>21</v>
@@ -3244,13 +3250,13 @@
         <v>0.5</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -3258,13 +3264,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2">
         <v>21</v>
@@ -3331,13 +3337,13 @@
       </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -3345,13 +3351,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F14" s="2">
         <v>22</v>
@@ -3420,13 +3426,13 @@
         <v>30.5</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -3434,13 +3440,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="2">
         <v>22</v>
@@ -3503,13 +3509,13 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -3517,13 +3523,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F16" s="2">
         <v>22</v>
@@ -3592,13 +3598,13 @@
         <v>3</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -3606,13 +3612,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F17" s="2">
         <v>22</v>
@@ -3675,13 +3681,13 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -3689,13 +3695,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2">
         <v>23</v>
@@ -3758,13 +3764,13 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -3772,13 +3778,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="2">
         <v>21</v>
@@ -3847,13 +3853,13 @@
         <v>2.5</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -3861,13 +3867,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F20" s="2">
         <v>23</v>
@@ -3930,13 +3936,13 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -3944,13 +3950,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="2">
         <v>22</v>
@@ -4019,13 +4025,13 @@
         <v>26</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -4033,13 +4039,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2">
         <v>21</v>
@@ -4108,13 +4114,13 @@
         <v>4</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -4122,13 +4128,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" s="2">
         <v>22</v>
@@ -4191,13 +4197,13 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -4205,13 +4211,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" s="2">
         <v>23</v>
@@ -4274,13 +4280,13 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -4288,13 +4294,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" s="2">
         <v>21</v>
@@ -4359,13 +4365,13 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -4373,13 +4379,13 @@
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" s="2">
         <v>23</v>
@@ -4448,13 +4454,13 @@
         <v>1</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -4462,13 +4468,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="2">
         <v>21</v>
@@ -4535,13 +4541,13 @@
       </c>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -4549,13 +4555,13 @@
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="2">
         <v>22</v>
@@ -4618,13 +4624,13 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -4632,13 +4638,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2">
         <v>20</v>
@@ -4705,13 +4711,13 @@
         <v>35</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -4719,10 +4725,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>17</v>
@@ -4788,13 +4794,13 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -4802,13 +4808,13 @@
         <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2">
         <v>21</v>
@@ -4875,13 +4881,13 @@
         <v>4.5</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -4889,13 +4895,13 @@
         <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2">
         <v>22</v>
@@ -4962,13 +4968,13 @@
         <v>8</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -4976,10 +4982,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>17</v>
@@ -5045,13 +5051,13 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -5059,13 +5065,13 @@
         <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" s="2">
         <v>22</v>
@@ -5134,13 +5140,13 @@
         <v>47.5</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -5148,13 +5154,13 @@
         <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2">
         <v>24</v>
@@ -5221,13 +5227,13 @@
         <v>1</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -5235,13 +5241,13 @@
         <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F36" s="2">
         <v>21</v>
@@ -5310,13 +5316,13 @@
         <v>11</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -5324,13 +5330,13 @@
         <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F37" s="2">
         <v>21</v>
@@ -5395,13 +5401,13 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC37" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -5409,13 +5415,13 @@
         <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F38" s="2">
         <v>21</v>
@@ -5484,13 +5490,13 @@
         <v>7.5</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -5498,13 +5504,13 @@
         <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F39" s="2">
         <v>22</v>
@@ -5573,13 +5579,13 @@
         <v>80.5</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC39" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -5587,13 +5593,13 @@
         <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" s="2">
         <v>23</v>
@@ -5662,13 +5668,13 @@
         <v>2</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -5676,13 +5682,13 @@
         <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F41" s="2">
         <v>22</v>
@@ -5749,13 +5755,13 @@
         <v>7.5</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -5763,13 +5769,13 @@
         <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F42" s="2">
         <v>23</v>
@@ -5834,13 +5840,13 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -5848,13 +5854,13 @@
         <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="F43" s="2">
         <v>22</v>
@@ -5921,13 +5927,13 @@
         <v>3.5</v>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -5935,13 +5941,13 @@
         <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F44" s="2">
         <v>22</v>
@@ -6008,13 +6014,13 @@
         <v>8.5</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC44" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -6022,13 +6028,13 @@
         <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="F45" s="2">
         <v>22</v>
@@ -6097,13 +6103,13 @@
         <v>8.5</v>
       </c>
       <c r="AB45" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AC45" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -6111,13 +6117,13 @@
         <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F46" s="2">
         <v>22</v>
@@ -6184,13 +6190,13 @@
         <v>19</v>
       </c>
       <c r="AB46" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC46" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -6198,13 +6204,13 @@
         <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F47" s="2">
         <v>22</v>
@@ -6267,13 +6273,13 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -6281,13 +6287,13 @@
         <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F48" s="2">
         <v>21</v>
@@ -6356,13 +6362,13 @@
         <v>12.5</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -6370,13 +6376,13 @@
         <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F49" s="2">
         <v>23</v>
@@ -6441,13 +6447,13 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -6455,13 +6461,13 @@
         <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2">
         <v>22</v>
@@ -6524,13 +6530,13 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -6538,13 +6544,13 @@
         <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F51" s="2">
         <v>23</v>
@@ -6611,13 +6617,13 @@
         <v>38.5</v>
       </c>
       <c r="AB51" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC51" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -6625,10 +6631,10 @@
         <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>17</v>
@@ -6694,13 +6700,13 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC52" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -6708,13 +6714,13 @@
         <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F53" s="2">
         <v>21</v>
@@ -6747,13 +6753,13 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AC53" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -6761,13 +6767,13 @@
         <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2">
         <v>21</v>
@@ -6836,13 +6842,13 @@
         <v>12</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AC54" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -6850,13 +6856,13 @@
         <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2">
         <v>21</v>
@@ -6925,13 +6931,13 @@
         <v>1</v>
       </c>
       <c r="AB55" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AC55" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -6939,13 +6945,13 @@
         <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" s="2">
         <v>22</v>
@@ -7014,13 +7020,13 @@
         <v>4.5</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC56" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -7028,13 +7034,13 @@
         <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F57" s="2">
         <v>21</v>
@@ -7099,13 +7105,13 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AC57" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -7113,10 +7119,10 @@
         <v>56</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>17</v>
@@ -7184,13 +7190,13 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AC58" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -7198,13 +7204,13 @@
         <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2">
         <v>21</v>
@@ -7269,13 +7275,13 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC59" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -7283,13 +7289,13 @@
         <v>58</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" s="2">
         <v>22</v>
@@ -7358,13 +7364,13 @@
         <v>2.5</v>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC60" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -7372,13 +7378,13 @@
         <v>59</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="F61" s="2">
         <v>22</v>
@@ -7443,13 +7449,13 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
       <c r="AB61" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC61" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -7457,13 +7463,13 @@
         <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F62" s="2">
         <v>22</v>
@@ -7528,13 +7534,13 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
       <c r="AB62" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC62" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -7542,13 +7548,13 @@
         <v>61</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2">
         <v>21</v>
@@ -7617,13 +7623,13 @@
         <v>9.5</v>
       </c>
       <c r="AB63" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC63" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -7631,13 +7637,13 @@
         <v>62</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2">
         <v>23</v>
@@ -7706,13 +7712,13 @@
         <v>3</v>
       </c>
       <c r="AB64" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC64" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -7720,13 +7726,13 @@
         <v>63</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F65" s="2">
         <v>23</v>
@@ -7793,13 +7799,13 @@
         <v>10.5</v>
       </c>
       <c r="AB65" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC65" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>3</v>
       </c>
@@ -7807,13 +7813,13 @@
         <v>64</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F66" s="2">
         <v>23</v>
@@ -7882,13 +7888,13 @@
         <v>6</v>
       </c>
       <c r="AB66" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC66" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>3</v>
       </c>
@@ -7896,13 +7902,13 @@
         <v>65</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F67" s="2">
         <v>23</v>
@@ -7971,13 +7977,13 @@
         <v>25.5</v>
       </c>
       <c r="AB67" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AC67" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>3</v>
       </c>
@@ -7985,13 +7991,13 @@
         <v>66</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2">
         <v>22</v>
@@ -8052,13 +8058,13 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
       <c r="AB68" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AC68" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>3</v>
       </c>
@@ -8066,13 +8072,13 @@
         <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F69" s="2">
         <v>21</v>
@@ -8141,13 +8147,13 @@
         <v>30.5</v>
       </c>
       <c r="AB69" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC69" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>3</v>
       </c>
@@ -8155,13 +8161,13 @@
         <v>68</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F70" s="2">
         <v>22</v>
@@ -8224,13 +8230,13 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
       <c r="AB70" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC70" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>3</v>
       </c>
@@ -8238,13 +8244,13 @@
         <v>69</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F71" s="2">
         <v>21</v>
@@ -8313,13 +8319,13 @@
         <v>70.5</v>
       </c>
       <c r="AB71" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC71" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>3</v>
       </c>
@@ -8327,13 +8333,13 @@
         <v>70</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F72" s="2">
         <v>25</v>
@@ -8400,13 +8406,13 @@
         <v>0.5</v>
       </c>
       <c r="AB72" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AC72" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>3</v>
       </c>
@@ -8414,13 +8420,13 @@
         <v>71</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F73" s="2">
         <v>22</v>
@@ -8489,13 +8495,13 @@
         <v>1.5</v>
       </c>
       <c r="AB73" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC73" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>3</v>
       </c>
@@ -8503,13 +8509,13 @@
         <v>72</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F74" s="2">
         <v>22</v>
@@ -8576,13 +8582,13 @@
         <v>6.5</v>
       </c>
       <c r="AB74" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC74" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>3</v>
       </c>
@@ -8590,13 +8596,13 @@
         <v>73</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F75" s="2">
         <v>22</v>
@@ -8661,13 +8667,13 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
       <c r="AB75" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC75" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>3</v>
       </c>
@@ -8675,13 +8681,13 @@
         <v>74</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F76" s="2">
         <v>22</v>
@@ -8746,13 +8752,13 @@
       </c>
       <c r="AA76" s="2"/>
       <c r="AB76" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC76" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>3</v>
       </c>
@@ -8760,13 +8766,13 @@
         <v>75</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F77" s="2">
         <v>24</v>
@@ -8833,13 +8839,13 @@
         <v>2.5</v>
       </c>
       <c r="AB77" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC77" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -8847,13 +8853,13 @@
         <v>76</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2">
         <v>24</v>
@@ -8916,13 +8922,13 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
       <c r="AB78" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC78" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>3</v>
       </c>
@@ -8930,13 +8936,13 @@
         <v>77</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F79" s="2">
         <v>21</v>
@@ -9005,13 +9011,13 @@
         <v>2</v>
       </c>
       <c r="AB79" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC79" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>3</v>
       </c>
@@ -9019,10 +9025,10 @@
         <v>78</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>17</v>
@@ -9088,13 +9094,13 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
       <c r="AB80" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC80" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>3</v>
       </c>
@@ -9102,10 +9108,10 @@
         <v>79</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>17</v>
@@ -9171,13 +9177,13 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
       <c r="AB81" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AC81" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>3</v>
       </c>
@@ -9185,13 +9191,13 @@
         <v>80</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F82" s="2">
         <v>21</v>
@@ -9258,13 +9264,13 @@
         <v>4.5</v>
       </c>
       <c r="AB82" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC82" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>3</v>
       </c>
@@ -9272,13 +9278,13 @@
         <v>81</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F83" s="2">
         <v>21</v>
@@ -9343,13 +9349,13 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
       <c r="AB83" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC83" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>3</v>
       </c>
@@ -9357,13 +9363,13 @@
         <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F84" s="2">
         <v>23</v>
@@ -9426,13 +9432,13 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
       <c r="AB84" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC84" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>3</v>
       </c>
@@ -9440,13 +9446,13 @@
         <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2">
         <v>22</v>
@@ -9513,13 +9519,13 @@
         <v>25</v>
       </c>
       <c r="AB85" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC85" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>3</v>
       </c>
@@ -9527,13 +9533,13 @@
         <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F86" s="2">
         <v>21</v>
@@ -9602,13 +9608,13 @@
         <v>2</v>
       </c>
       <c r="AB86" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AC86" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>3</v>
       </c>
@@ -9616,13 +9622,13 @@
         <v>85</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2">
         <v>23</v>
@@ -9685,13 +9691,13 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
       <c r="AB87" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC87" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>3</v>
       </c>
@@ -9699,13 +9705,13 @@
         <v>86</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2">
         <v>22</v>
@@ -9770,13 +9776,13 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
       <c r="AB88" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AC88" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>3</v>
       </c>
@@ -9784,13 +9790,13 @@
         <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F89" s="2">
         <v>23</v>
@@ -9859,13 +9865,13 @@
         <v>5</v>
       </c>
       <c r="AB89" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AC89" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>3</v>
       </c>
@@ -9873,13 +9879,13 @@
         <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F90" s="2">
         <v>24</v>
@@ -9948,13 +9954,13 @@
         <v>23.5</v>
       </c>
       <c r="AB90" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AC90" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>3</v>
       </c>
@@ -9962,13 +9968,13 @@
         <v>89</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F91" s="2">
         <v>23</v>
@@ -10035,11 +10041,11 @@
         <v>45.5</v>
       </c>
       <c r="AB91" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AC91" s="2"/>
     </row>
-    <row r="92" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>3</v>
       </c>
@@ -10047,13 +10053,13 @@
         <v>90</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F92" s="2">
         <v>22</v>
@@ -10116,13 +10122,13 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
       <c r="AB92" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC92" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>3</v>
       </c>
@@ -10130,13 +10136,13 @@
         <v>91</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F93" s="2">
         <v>23</v>
@@ -10199,13 +10205,13 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
       <c r="AB93" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC93" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>3</v>
       </c>
@@ -10213,13 +10219,13 @@
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F94" s="2">
         <v>23</v>
@@ -10284,13 +10290,13 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
       <c r="AB94" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AC94" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>3</v>
       </c>
@@ -10298,13 +10304,13 @@
         <v>93</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F95" s="2">
         <v>23</v>
@@ -10367,13 +10373,13 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
       <c r="AB95" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AC95" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>3</v>
       </c>
@@ -10381,13 +10387,13 @@
         <v>94</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F96" s="2">
         <v>23</v>
@@ -10452,13 +10458,13 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
       <c r="AB96" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC96" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>3</v>
       </c>
@@ -10466,13 +10472,13 @@
         <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2">
         <v>24</v>
@@ -10535,13 +10541,13 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
       <c r="AB97" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AC97" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>3</v>
       </c>
@@ -10549,13 +10555,13 @@
         <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F98" s="2">
         <v>22</v>
@@ -10622,13 +10628,13 @@
         <v>1</v>
       </c>
       <c r="AB98" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC98" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>3</v>
       </c>
@@ -10636,10 +10642,10 @@
         <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>17</v>
@@ -10705,13 +10711,13 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
       <c r="AB99" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC99" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>3</v>
       </c>
@@ -10719,13 +10725,13 @@
         <v>98</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F100" s="2">
         <v>22</v>
@@ -10794,13 +10800,13 @@
         <v>4.5</v>
       </c>
       <c r="AB100" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AC100" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>4</v>
       </c>
@@ -10808,13 +10814,13 @@
         <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F101" s="2">
         <v>22</v>
@@ -10883,13 +10889,13 @@
         <v>11</v>
       </c>
       <c r="AB101" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AC101" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>4</v>
       </c>
@@ -10897,13 +10903,13 @@
         <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F102" s="2">
         <v>23</v>
@@ -10966,13 +10972,13 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
       <c r="AB102" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC102" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="103" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>4</v>
       </c>
@@ -10980,13 +10986,13 @@
         <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F103" s="2">
         <v>23</v>
@@ -11053,13 +11059,13 @@
         <v>1</v>
       </c>
       <c r="AB103" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC103" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>4</v>
       </c>
@@ -11067,13 +11073,13 @@
         <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F104" s="2">
         <v>22</v>
@@ -11138,13 +11144,13 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
       <c r="AB104" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC104" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="105" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>4</v>
       </c>
@@ -11152,13 +11158,13 @@
         <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F105" s="2">
         <v>22</v>
@@ -11225,13 +11231,13 @@
         <v>7</v>
       </c>
       <c r="AB105" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC105" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="106" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>4</v>
       </c>
@@ -11239,13 +11245,13 @@
         <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F106" s="2">
         <v>22</v>
@@ -11314,13 +11320,13 @@
         <v>4</v>
       </c>
       <c r="AB106" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AC106" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>4</v>
       </c>
@@ -11328,10 +11334,10 @@
         <v>105</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>17</v>
@@ -11397,13 +11403,13 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
       <c r="AB107" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AC107" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>4</v>
       </c>
@@ -11411,13 +11417,13 @@
         <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F108" s="2">
         <v>22</v>
@@ -11486,13 +11492,13 @@
         <v>5</v>
       </c>
       <c r="AB108" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AC108" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="109" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>4</v>
       </c>
@@ -11500,13 +11506,13 @@
         <v>107</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F109" s="2">
         <v>23</v>
@@ -11571,13 +11577,13 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
       <c r="AB109" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AC109" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="110" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>4</v>
       </c>
@@ -11585,13 +11591,13 @@
         <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F110" s="2">
         <v>23</v>
@@ -11658,11 +11664,11 @@
       </c>
       <c r="AA110" s="2"/>
       <c r="AB110" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AC110" s="2"/>
     </row>
-    <row r="111" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>4</v>
       </c>
@@ -11670,13 +11676,13 @@
         <v>109</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F111" s="2">
         <v>23</v>
@@ -11745,13 +11751,13 @@
         <v>1</v>
       </c>
       <c r="AB111" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC111" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="112" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>4</v>
       </c>
@@ -11759,13 +11765,13 @@
         <v>110</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F112" s="2">
         <v>23</v>
@@ -11830,13 +11836,13 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
       <c r="AB112" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC112" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="113" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>4</v>
       </c>
@@ -11844,13 +11850,13 @@
         <v>111</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F113" s="2">
         <v>23</v>
@@ -11917,11 +11923,11 @@
       </c>
       <c r="AA113" s="2"/>
       <c r="AB113" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AC113" s="2"/>
     </row>
-    <row r="114" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>4</v>
       </c>
@@ -11929,13 +11935,13 @@
         <v>112</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F114" s="2">
         <v>24</v>
@@ -11998,13 +12004,13 @@
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
       <c r="AB114" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC114" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="115" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>4</v>
       </c>
@@ -12012,13 +12018,13 @@
         <v>113</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F115" s="2">
         <v>23</v>
@@ -12087,13 +12093,13 @@
         <v>7</v>
       </c>
       <c r="AB115" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC115" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="116" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>4</v>
       </c>
@@ -12101,13 +12107,13 @@
         <v>114</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F116" s="2">
         <v>22</v>
@@ -12172,13 +12178,13 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
       <c r="AB116" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC116" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="117" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>4</v>
       </c>
@@ -12186,13 +12192,13 @@
         <v>115</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F117" s="2">
         <v>23</v>
@@ -12261,13 +12267,13 @@
         <v>9.5</v>
       </c>
       <c r="AB117" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AC117" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="118" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>4</v>
       </c>
@@ -12275,13 +12281,13 @@
         <v>116</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F118" s="2">
         <v>21</v>
@@ -12348,13 +12354,13 @@
         <v>10.5</v>
       </c>
       <c r="AB118" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AC118" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>4</v>
       </c>
@@ -12362,13 +12368,13 @@
         <v>117</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F119" s="2">
         <v>21</v>
@@ -12433,13 +12439,13 @@
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
       <c r="AB119" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AC119" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="120" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>4</v>
       </c>
@@ -12447,13 +12453,13 @@
         <v>118</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F120" s="2">
         <v>23</v>
@@ -12522,13 +12528,13 @@
         <v>1</v>
       </c>
       <c r="AB120" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC120" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="121" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>4</v>
       </c>
@@ -12536,13 +12542,13 @@
         <v>119</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F121" s="2">
         <v>22</v>
@@ -12607,13 +12613,13 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
       <c r="AB121" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AC121" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="122" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>4</v>
       </c>
@@ -12621,13 +12627,13 @@
         <v>120</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F122" s="2">
         <v>23</v>
@@ -12696,11 +12702,11 @@
         <v>30</v>
       </c>
       <c r="AB122" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC122" s="2"/>
     </row>
-    <row r="123" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>4</v>
       </c>
@@ -12708,13 +12714,13 @@
         <v>121</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F123" s="2">
         <v>22</v>
@@ -12777,13 +12783,13 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
       <c r="AB123" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AC123" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="124" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>4</v>
       </c>
@@ -12791,13 +12797,13 @@
         <v>122</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F124" s="2">
         <v>21</v>
@@ -12864,13 +12870,13 @@
         <v>5.5</v>
       </c>
       <c r="AB124" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC124" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="125" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>4</v>
       </c>
@@ -12878,13 +12884,13 @@
         <v>123</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F125" s="2">
         <v>22</v>
@@ -12947,13 +12953,13 @@
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
       <c r="AB125" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AC125" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="126" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>4</v>
       </c>
@@ -12961,13 +12967,13 @@
         <v>124</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F126" s="2">
         <v>23</v>
@@ -13036,13 +13042,13 @@
         <v>1</v>
       </c>
       <c r="AB126" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AC126" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="127" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>4</v>
       </c>
@@ -13050,13 +13056,13 @@
         <v>125</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F127" s="2">
         <v>21</v>
@@ -13123,13 +13129,13 @@
         <v>1</v>
       </c>
       <c r="AB127" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC127" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="128" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>4</v>
       </c>
@@ -13137,13 +13143,13 @@
         <v>126</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F128" s="2">
         <v>21</v>
@@ -13208,13 +13214,13 @@
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
       <c r="AB128" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC128" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="129" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>4</v>
       </c>
@@ -13222,13 +13228,13 @@
         <v>127</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F129" s="2">
         <v>22</v>
@@ -13295,11 +13301,11 @@
       </c>
       <c r="AA129" s="2"/>
       <c r="AB129" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AC129" s="2"/>
     </row>
-    <row r="130" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>4</v>
       </c>
@@ -13307,13 +13313,13 @@
         <v>128</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F130" s="2">
         <v>23</v>
@@ -13376,13 +13382,13 @@
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
       <c r="AB130" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AC130" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="131" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>4</v>
       </c>
@@ -13390,13 +13396,13 @@
         <v>129</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F131" s="2">
         <v>22</v>
@@ -13463,13 +13469,13 @@
       </c>
       <c r="AA131" s="2"/>
       <c r="AB131" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC131" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="132" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>4</v>
       </c>
@@ -13477,13 +13483,13 @@
         <v>130</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F132" s="2">
         <v>24</v>
@@ -13546,13 +13552,13 @@
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
       <c r="AB132" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC132" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="133" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>4</v>
       </c>
@@ -13560,13 +13566,13 @@
         <v>131</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="F133" s="2">
         <v>22</v>
@@ -13635,13 +13641,13 @@
         <v>13</v>
       </c>
       <c r="AB133" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC133" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="134" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>4</v>
       </c>
@@ -13649,13 +13655,13 @@
         <v>132</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F134" s="2">
         <v>22</v>
@@ -13722,13 +13728,13 @@
         <v>4.5</v>
       </c>
       <c r="AB134" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AC134" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="135" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>4</v>
       </c>
@@ -13736,13 +13742,13 @@
         <v>133</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F135" s="2">
         <v>21</v>
@@ -13809,13 +13815,13 @@
       </c>
       <c r="AA135" s="2"/>
       <c r="AB135" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AC135" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="136" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>4</v>
       </c>
@@ -13823,13 +13829,13 @@
         <v>134</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F136" s="2">
         <v>22</v>
@@ -13892,13 +13898,13 @@
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
       <c r="AB136" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC136" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="137" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>4</v>
       </c>
@@ -13906,13 +13912,13 @@
         <v>135</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F137" s="2">
         <v>23</v>
@@ -13975,13 +13981,13 @@
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
       <c r="AB137" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC137" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="138" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>4</v>
       </c>
@@ -13989,13 +13995,13 @@
         <v>136</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F138" s="2">
         <v>24</v>
@@ -14060,13 +14066,13 @@
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
       <c r="AB138" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AC138" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="139" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>4</v>
       </c>
@@ -14074,13 +14080,13 @@
         <v>137</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F139" s="2">
         <v>22</v>
@@ -14149,13 +14155,13 @@
         <v>16.5</v>
       </c>
       <c r="AB139" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AC139" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="140" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>4</v>
       </c>
@@ -14163,13 +14169,13 @@
         <v>138</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F140" s="2">
         <v>23</v>
@@ -14234,11 +14240,11 @@
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
       <c r="AB140" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AC140" s="2"/>
     </row>
-    <row r="141" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>4</v>
       </c>
@@ -14246,13 +14252,13 @@
         <v>139</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F141" s="2">
         <v>23</v>
@@ -14315,13 +14321,13 @@
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
       <c r="AB141" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC141" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="142" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>5</v>
       </c>
@@ -14329,13 +14335,13 @@
         <v>140</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F142" s="2">
         <v>21</v>
@@ -14400,13 +14406,13 @@
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
       <c r="AB142" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC142" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="143" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>5</v>
       </c>
@@ -14414,13 +14420,13 @@
         <v>141</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F143" s="2">
         <v>22</v>
@@ -14485,13 +14491,13 @@
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
       <c r="AB143" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC143" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="144" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>5</v>
       </c>
@@ -14499,13 +14505,13 @@
         <v>142</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F144" s="2">
         <v>23</v>
@@ -14572,13 +14578,13 @@
         <v>14.5</v>
       </c>
       <c r="AB144" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AC144" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="145" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>5</v>
       </c>
@@ -14586,13 +14592,13 @@
         <v>143</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F145" s="2">
         <v>23</v>
@@ -14657,13 +14663,13 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
       <c r="AB145" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC145" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="146" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>5</v>
       </c>
@@ -14671,10 +14677,10 @@
         <v>144</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>17</v>
@@ -14742,13 +14748,13 @@
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
       <c r="AB146" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AC146" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="147" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>5</v>
       </c>
@@ -14756,13 +14762,13 @@
         <v>145</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F147" s="2">
         <v>22</v>
@@ -14825,13 +14831,13 @@
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
       <c r="AB147" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC147" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="148" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>5</v>
       </c>
@@ -14839,13 +14845,13 @@
         <v>146</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F148" s="2">
         <v>24</v>
@@ -14914,11 +14920,11 @@
         <v>72</v>
       </c>
       <c r="AB148" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AC148" s="2"/>
     </row>
-    <row r="149" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>5</v>
       </c>
@@ -14926,13 +14932,13 @@
         <v>147</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F149" s="2">
         <v>23</v>
@@ -14999,13 +15005,13 @@
         <v>28.5</v>
       </c>
       <c r="AB149" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC149" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="150" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>5</v>
       </c>
@@ -15013,13 +15019,13 @@
         <v>148</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F150" s="2">
         <v>22</v>
@@ -15082,13 +15088,13 @@
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
       <c r="AB150" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC150" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="151" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>5</v>
       </c>
@@ -15096,13 +15102,13 @@
         <v>149</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F151" s="2">
         <v>21</v>
@@ -15167,13 +15173,13 @@
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
       <c r="AB151" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC151" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="152" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>5</v>
       </c>
@@ -15181,13 +15187,13 @@
         <v>150</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F152" s="2">
         <v>21</v>
@@ -15252,13 +15258,13 @@
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
       <c r="AB152" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC152" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="153" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>5</v>
       </c>
@@ -15266,10 +15272,10 @@
         <v>151</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>17</v>
@@ -15335,13 +15341,13 @@
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
       <c r="AB153" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AC153" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="154" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>5</v>
       </c>
@@ -15349,13 +15355,13 @@
         <v>152</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F154" s="2">
         <v>22</v>
@@ -15422,13 +15428,13 @@
         <v>25.5</v>
       </c>
       <c r="AB154" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AC154" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="155" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>5</v>
       </c>
@@ -15436,13 +15442,13 @@
         <v>153</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F155" s="2">
         <v>22</v>
@@ -15507,13 +15513,13 @@
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
       <c r="AB155" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC155" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="156" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>5</v>
       </c>
@@ -15521,13 +15527,13 @@
         <v>154</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F156" s="2">
         <v>23</v>
@@ -15590,13 +15596,13 @@
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
       <c r="AB156" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC156" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="157" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>5</v>
       </c>
@@ -15604,13 +15610,13 @@
         <v>155</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F157" s="2">
         <v>23</v>
@@ -15675,11 +15681,11 @@
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
       <c r="AB157" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC157" s="2"/>
     </row>
-    <row r="158" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>5</v>
       </c>
@@ -15687,13 +15693,13 @@
         <v>156</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F158" s="2">
         <v>22</v>
@@ -15758,13 +15764,13 @@
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
       <c r="AB158" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC158" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="159" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>5</v>
       </c>
@@ -15772,13 +15778,13 @@
         <v>157</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F159" s="2">
         <v>22</v>
@@ -15845,11 +15851,11 @@
       </c>
       <c r="AA159" s="2"/>
       <c r="AB159" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AC159" s="2"/>
     </row>
-    <row r="160" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>5</v>
       </c>
@@ -15857,13 +15863,13 @@
         <v>158</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F160" s="2">
         <v>24</v>
@@ -15928,13 +15934,13 @@
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
       <c r="AB160" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AC160" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="161" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>5</v>
       </c>
@@ -15942,13 +15948,13 @@
         <v>159</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F161" s="2">
         <v>22</v>
@@ -16013,13 +16019,13 @@
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
       <c r="AB161" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC161" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="162" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>5</v>
       </c>
@@ -16027,13 +16033,13 @@
         <v>160</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F162" s="2">
         <v>23</v>
@@ -16100,13 +16106,13 @@
         <v>1</v>
       </c>
       <c r="AB162" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AC162" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="163" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>5</v>
       </c>
@@ -16114,10 +16120,10 @@
         <v>161</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>17</v>
@@ -16183,13 +16189,13 @@
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
       <c r="AB163" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC163" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="164" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>5</v>
       </c>
@@ -16197,13 +16203,13 @@
         <v>162</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F164" s="2">
         <v>23</v>
@@ -16264,13 +16270,13 @@
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
       <c r="AB164" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC164" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="165" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>5</v>
       </c>
@@ -16278,13 +16284,13 @@
         <v>163</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F165" s="2">
         <v>23</v>
@@ -16349,13 +16355,13 @@
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
       <c r="AB165" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC165" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="166" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>5</v>
       </c>
@@ -16363,13 +16369,13 @@
         <v>164</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F166" s="2">
         <v>23</v>
@@ -16432,13 +16438,13 @@
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
       <c r="AB166" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC166" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="167" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>5</v>
       </c>
@@ -16446,13 +16452,13 @@
         <v>165</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F167" s="2">
         <v>22</v>
@@ -16517,11 +16523,11 @@
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
       <c r="AB167" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AC167" s="2"/>
     </row>
-    <row r="168" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>5</v>
       </c>
@@ -16529,13 +16535,13 @@
         <v>166</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F168" s="2">
         <v>22</v>
@@ -16602,13 +16608,13 @@
         <v>12.5</v>
       </c>
       <c r="AB168" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC168" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="169" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>5</v>
       </c>
@@ -16616,13 +16622,13 @@
         <v>167</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F169" s="2">
         <v>21</v>
@@ -16685,11 +16691,11 @@
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
       <c r="AB169" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC169" s="2"/>
     </row>
-    <row r="170" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>5</v>
       </c>
@@ -16697,10 +16703,10 @@
         <v>168</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>17</v>
@@ -16766,13 +16772,13 @@
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
       <c r="AB170" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC170" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="171" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>5</v>
       </c>
@@ -16780,13 +16786,13 @@
         <v>169</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F171" s="2">
         <v>23</v>
@@ -16851,13 +16857,13 @@
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
       <c r="AB171" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AC171" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="172" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>5</v>
       </c>
@@ -16865,13 +16871,13 @@
         <v>170</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F172" s="2">
         <v>22</v>
@@ -16934,11 +16940,11 @@
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
       <c r="AB172" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AC172" s="2"/>
     </row>
-    <row r="173" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>5</v>
       </c>
@@ -16946,13 +16952,13 @@
         <v>171</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F173" s="2">
         <v>22</v>
@@ -17015,13 +17021,13 @@
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
       <c r="AB173" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC173" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="174" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>5</v>
       </c>
@@ -17029,13 +17035,13 @@
         <v>172</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F174" s="2">
         <v>21</v>
@@ -17098,13 +17104,13 @@
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
       <c r="AB174" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AC174" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="175" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>5</v>
       </c>
@@ -17112,13 +17118,13 @@
         <v>173</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D175" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="F175" s="2">
         <v>22</v>
@@ -17181,13 +17187,13 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
       <c r="AB175" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AC175" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="176" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>5</v>
       </c>
@@ -17195,13 +17201,13 @@
         <v>174</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F176" s="2">
         <v>23</v>
@@ -17234,13 +17240,13 @@
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
       <c r="AB176" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC176" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="177" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>5</v>
       </c>
@@ -17248,13 +17254,13 @@
         <v>175</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F177" s="2">
         <v>22</v>
@@ -17321,13 +17327,13 @@
         <v>4.5</v>
       </c>
       <c r="AB177" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AC177" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="178" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>6</v>
       </c>
@@ -17335,13 +17341,13 @@
         <v>176</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="F178" s="2">
         <v>23</v>
@@ -17406,13 +17412,13 @@
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
       <c r="AB178" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC178" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="179" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>6</v>
       </c>
@@ -17420,13 +17426,13 @@
         <v>177</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F179" s="2">
         <v>23</v>
@@ -17491,11 +17497,11 @@
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
       <c r="AB179" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AC179" s="2"/>
     </row>
-    <row r="180" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>6</v>
       </c>
@@ -17503,13 +17509,13 @@
         <v>178</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F180" s="2">
         <v>22</v>
@@ -17576,13 +17582,13 @@
       </c>
       <c r="AA180" s="2"/>
       <c r="AB180" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC180" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="181" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>6</v>
       </c>
@@ -17590,13 +17596,13 @@
         <v>179</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D181" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="F181" s="2">
         <v>23</v>
@@ -17661,13 +17667,13 @@
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
       <c r="AB181" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AC181" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="182" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>6</v>
       </c>
@@ -17675,13 +17681,13 @@
         <v>180</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F182" s="2">
         <v>22</v>
@@ -17716,7 +17722,7 @@
       <c r="AB182" s="2"/>
       <c r="AC182" s="2"/>
     </row>
-    <row r="183" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>6</v>
       </c>
@@ -17724,13 +17730,13 @@
         <v>181</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F183" s="2">
         <v>22</v>
@@ -17795,11 +17801,11 @@
         <v>1</v>
       </c>
       <c r="AB183" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC183" s="2"/>
     </row>
-    <row r="184" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>6</v>
       </c>
@@ -17807,13 +17813,13 @@
         <v>182</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F184" s="2">
         <v>22</v>
@@ -17874,13 +17880,13 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
       <c r="AB184" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AC184" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="185" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>6</v>
       </c>
@@ -17888,13 +17894,13 @@
         <v>183</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F185" s="2">
         <v>23</v>
@@ -17959,13 +17965,13 @@
       <c r="Z185" s="2"/>
       <c r="AA185" s="2"/>
       <c r="AB185" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC185" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="186" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>6</v>
       </c>
@@ -17973,13 +17979,13 @@
         <v>184</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F186" s="2">
         <v>23</v>
@@ -18044,13 +18050,13 @@
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
       <c r="AB186" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AC186" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="187" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>6</v>
       </c>
@@ -18058,13 +18064,13 @@
         <v>185</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F187" s="2">
         <v>23</v>
@@ -18131,11 +18137,11 @@
       </c>
       <c r="AA187" s="2"/>
       <c r="AB187" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AC187" s="2"/>
     </row>
-    <row r="188" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>6</v>
       </c>
@@ -18143,13 +18149,13 @@
         <v>186</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F188" s="2">
         <v>23</v>
@@ -18214,13 +18220,13 @@
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
       <c r="AB188" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC188" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="189" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>6</v>
       </c>
@@ -18228,13 +18234,13 @@
         <v>187</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F189" s="2">
         <v>22</v>
@@ -18295,13 +18301,13 @@
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
       <c r="AB189" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC189" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="190" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>6</v>
       </c>
@@ -18309,13 +18315,13 @@
         <v>188</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F190" s="2">
         <v>23</v>
@@ -18378,13 +18384,13 @@
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
       <c r="AB190" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AC190" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="191" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>6</v>
       </c>
@@ -18392,13 +18398,13 @@
         <v>189</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F191" s="2">
         <v>22</v>
@@ -18467,13 +18473,13 @@
         <v>4</v>
       </c>
       <c r="AB191" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AC191" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="192" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>6</v>
       </c>
@@ -18481,13 +18487,13 @@
         <v>190</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F192" s="2">
         <v>24</v>
@@ -18552,13 +18558,13 @@
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
       <c r="AB192" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC192" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="193" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>6</v>
       </c>
@@ -18566,13 +18572,13 @@
         <v>191</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F193" s="2">
         <v>23</v>
@@ -18635,13 +18641,13 @@
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
       <c r="AB193" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AC193" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="194" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>6</v>
       </c>
@@ -18649,13 +18655,13 @@
         <v>192</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F194" s="2">
         <v>22</v>
@@ -18688,13 +18694,13 @@
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
       <c r="AB194" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC194" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="195" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>6</v>
       </c>
@@ -18702,10 +18708,10 @@
         <v>193</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>17</v>
@@ -18771,13 +18777,13 @@
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
       <c r="AB195" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC195" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="196" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>6</v>
       </c>
@@ -18785,13 +18791,13 @@
         <v>194</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F196" s="2">
         <v>23</v>
@@ -18856,13 +18862,13 @@
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
       <c r="AB196" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AC196" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="197" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>6</v>
       </c>
@@ -18870,10 +18876,10 @@
         <v>195</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>17</v>
@@ -18939,13 +18945,13 @@
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
       <c r="AB197" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AC197" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="198" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>6</v>
       </c>
@@ -18953,13 +18959,13 @@
         <v>196</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F198" s="2">
         <v>23</v>
@@ -19028,13 +19034,13 @@
         <v>1</v>
       </c>
       <c r="AB198" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC198" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="199" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>6</v>
       </c>
@@ -19042,13 +19048,13 @@
         <v>197</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F199" s="2">
         <v>22</v>
@@ -19111,13 +19117,13 @@
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
       <c r="AB199" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AC199" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="200" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>6</v>
       </c>
@@ -19125,13 +19131,13 @@
         <v>198</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F200" s="2">
         <v>23</v>
@@ -19196,13 +19202,13 @@
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
       <c r="AB200" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AC200" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="201" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>6</v>
       </c>
@@ -19210,13 +19216,13 @@
         <v>199</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F201" s="2">
         <v>22</v>
@@ -19281,13 +19287,13 @@
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
       <c r="AB201" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC201" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="202" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>6</v>
       </c>
@@ -19295,13 +19301,13 @@
         <v>200</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F202" s="2">
         <v>22</v>
@@ -19364,13 +19370,13 @@
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
       <c r="AB202" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC202" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="203" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>6</v>
       </c>
@@ -19378,13 +19384,13 @@
         <v>201</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F203" s="2">
         <v>24</v>
@@ -19445,13 +19451,13 @@
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
       <c r="AB203" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC203" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="204" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>6</v>
       </c>
@@ -19459,13 +19465,13 @@
         <v>202</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F204" s="2">
         <v>24</v>
@@ -19532,13 +19538,13 @@
         <v>7.5</v>
       </c>
       <c r="AB204" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AC204" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="205" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>6</v>
       </c>
@@ -19546,13 +19552,13 @@
         <v>203</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F205" s="2">
         <v>23</v>
@@ -19615,13 +19621,13 @@
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
       <c r="AB205" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AC205" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="206" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>6</v>
       </c>
@@ -19629,13 +19635,13 @@
         <v>204</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F206" s="2">
         <v>23</v>
@@ -19704,13 +19710,13 @@
         <v>1</v>
       </c>
       <c r="AB206" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AC206" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="207" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>6</v>
       </c>
@@ -19718,13 +19724,13 @@
         <v>205</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F207" s="2">
         <v>22</v>
@@ -19791,11 +19797,11 @@
       </c>
       <c r="AA207" s="2"/>
       <c r="AB207" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AC207" s="2"/>
     </row>
-    <row r="208" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>6</v>
       </c>
@@ -19803,13 +19809,13 @@
         <v>206</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F208" s="2">
         <v>22</v>
@@ -19874,13 +19880,13 @@
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
       <c r="AB208" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC208" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="209" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>6</v>
       </c>
@@ -19888,13 +19894,13 @@
         <v>207</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F209" s="2">
         <v>23</v>
@@ -19955,13 +19961,13 @@
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
       <c r="AB209" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC209" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="210" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>6</v>
       </c>
@@ -19969,13 +19975,13 @@
         <v>208</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F210" s="2">
         <v>22</v>
@@ -20042,11 +20048,11 @@
         <v>6</v>
       </c>
       <c r="AB210" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AC210" s="2"/>
     </row>
-    <row r="211" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>6</v>
       </c>
@@ -20054,13 +20060,13 @@
         <v>209</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F211" s="2">
         <v>22</v>
@@ -20127,13 +20133,13 @@
       </c>
       <c r="AA211" s="2"/>
       <c r="AB211" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AC211" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="212" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>6</v>
       </c>
@@ -20141,13 +20147,13 @@
         <v>210</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D212" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="F212" s="2">
         <v>24</v>
@@ -20180,13 +20186,13 @@
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
       <c r="AB212" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC212" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="213" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>6</v>
       </c>
@@ -20194,13 +20200,13 @@
         <v>211</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F213" s="2">
         <v>22</v>
@@ -20233,13 +20239,13 @@
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
       <c r="AB213" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC213" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="214" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>6</v>
       </c>
@@ -20247,13 +20253,13 @@
         <v>212</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F214" s="2">
         <v>22</v>
@@ -20320,13 +20326,13 @@
         <v>1</v>
       </c>
       <c r="AB214" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AC214" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="215" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>6</v>
       </c>
@@ -20334,13 +20340,13 @@
         <v>213</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F215" s="2">
         <v>22</v>
@@ -20405,13 +20411,13 @@
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
       <c r="AB215" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC215" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="216" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>6</v>
       </c>
@@ -20419,13 +20425,13 @@
         <v>214</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F216" s="2">
         <v>22</v>
@@ -20494,13 +20500,13 @@
         <v>14.5</v>
       </c>
       <c r="AB216" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC216" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="217" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>6</v>
       </c>
@@ -20508,13 +20514,13 @@
         <v>215</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F217" s="2">
         <v>22</v>
@@ -20577,13 +20583,13 @@
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
       <c r="AB217" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC217" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="218" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>6</v>
       </c>
@@ -20591,13 +20597,13 @@
         <v>216</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F218" s="2">
         <v>22</v>
@@ -20660,13 +20666,13 @@
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
       <c r="AB218" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AC218" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="219" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>6</v>
       </c>
@@ -20674,13 +20680,13 @@
         <v>217</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F219" s="2">
         <v>22</v>
@@ -20743,11 +20749,11 @@
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
       <c r="AB219" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC219" s="2"/>
     </row>
-    <row r="220" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>6</v>
       </c>
@@ -20755,13 +20761,13 @@
         <v>218</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F220" s="2">
         <v>22</v>
@@ -20828,13 +20834,13 @@
         <v>1</v>
       </c>
       <c r="AB220" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AC220" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="221" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>6</v>
       </c>
@@ -20842,13 +20848,13 @@
         <v>219</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F221" s="2">
         <v>22</v>
@@ -20917,13 +20923,13 @@
         <v>2</v>
       </c>
       <c r="AB221" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AC221" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="222" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>6</v>
       </c>
@@ -20931,13 +20937,13 @@
         <v>220</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F222" s="2">
         <v>23</v>
@@ -20970,13 +20976,13 @@
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
       <c r="AB222" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AC222" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="223" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>6</v>
       </c>
@@ -20984,10 +20990,10 @@
         <v>221</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>17</v>
@@ -21055,13 +21061,13 @@
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
       <c r="AB223" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC223" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="224" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>7</v>
       </c>
@@ -21069,13 +21075,13 @@
         <v>222</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F224" s="2">
         <v>23</v>
@@ -21142,13 +21148,13 @@
         <v>1</v>
       </c>
       <c r="AB224" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC224" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="225" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>7</v>
       </c>
@@ -21156,13 +21162,13 @@
         <v>223</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F225" s="2">
         <v>24</v>
@@ -21195,13 +21201,13 @@
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
       <c r="AB225" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC225" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="226" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>7</v>
       </c>
@@ -21209,10 +21215,10 @@
         <v>224</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>17</v>
@@ -21248,13 +21254,13 @@
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
       <c r="AB226" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC226" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="227" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>7</v>
       </c>
@@ -21262,13 +21268,13 @@
         <v>225</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F227" s="2">
         <v>23</v>
@@ -21301,13 +21307,13 @@
       <c r="Z227" s="2"/>
       <c r="AA227" s="2"/>
       <c r="AB227" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC227" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="228" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>7</v>
       </c>
@@ -21315,13 +21321,13 @@
         <v>226</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F228" s="2">
         <v>22</v>
@@ -21386,11 +21392,11 @@
         <v>1</v>
       </c>
       <c r="AB228" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AC228" s="2"/>
     </row>
-    <row r="229" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>7</v>
       </c>
@@ -21398,13 +21404,13 @@
         <v>227</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F229" s="2">
         <v>22</v>
@@ -21471,13 +21477,13 @@
         <v>8.5</v>
       </c>
       <c r="AB229" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AC229" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="230" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>7</v>
       </c>
@@ -21485,13 +21491,13 @@
         <v>228</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F230" s="2">
         <v>23</v>
@@ -21556,13 +21562,13 @@
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
       <c r="AB230" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AC230" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="231" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>7</v>
       </c>
@@ -21570,13 +21576,13 @@
         <v>229</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F231" s="2">
         <v>22</v>
@@ -21639,13 +21645,13 @@
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
       <c r="AB231" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC231" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="232" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>7</v>
       </c>
@@ -21653,13 +21659,13 @@
         <v>230</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F232" s="2">
         <v>22</v>
@@ -21722,13 +21728,13 @@
       <c r="Z232" s="2"/>
       <c r="AA232" s="2"/>
       <c r="AB232" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AC232" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="233" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>7</v>
       </c>
@@ -21736,13 +21742,13 @@
         <v>231</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F233" s="2">
         <v>21</v>
@@ -21805,13 +21811,13 @@
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
       <c r="AB233" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC233" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="234" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>7</v>
       </c>
@@ -21819,13 +21825,13 @@
         <v>232</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F234" s="2">
         <v>23</v>
@@ -21858,13 +21864,13 @@
       <c r="Z234" s="2"/>
       <c r="AA234" s="2"/>
       <c r="AB234" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AC234" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="235" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>7</v>
       </c>
@@ -21872,13 +21878,13 @@
         <v>233</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F235" s="2">
         <v>22</v>
@@ -21947,13 +21953,13 @@
         <v>1.5</v>
       </c>
       <c r="AB235" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AC235" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="236" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>7</v>
       </c>
@@ -21961,10 +21967,10 @@
         <v>234</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>17</v>
@@ -22030,13 +22036,13 @@
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
       <c r="AB236" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AC236" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="237" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>7</v>
       </c>
@@ -22044,13 +22050,13 @@
         <v>235</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F237" s="2">
         <v>24</v>
@@ -22115,11 +22121,11 @@
       <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
       <c r="AB237" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AC237" s="2"/>
     </row>
-    <row r="238" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>7</v>
       </c>
@@ -22127,13 +22133,13 @@
         <v>236</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F238" s="2">
         <v>22</v>
@@ -22198,13 +22204,13 @@
       <c r="Z238" s="2"/>
       <c r="AA238" s="2"/>
       <c r="AB238" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AC238" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="239" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>7</v>
       </c>
@@ -22212,13 +22218,13 @@
         <v>237</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F239" s="2">
         <v>23</v>
@@ -22283,13 +22289,13 @@
       <c r="Z239" s="2"/>
       <c r="AA239" s="2"/>
       <c r="AB239" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC239" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="240" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>7</v>
       </c>
@@ -22297,13 +22303,13 @@
         <v>238</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F240" s="2">
         <v>22</v>
@@ -22336,13 +22342,13 @@
       <c r="Z240" s="2"/>
       <c r="AA240" s="2"/>
       <c r="AB240" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC240" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="241" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>7</v>
       </c>
@@ -22350,13 +22356,13 @@
         <v>239</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F241" s="2">
         <v>23</v>
@@ -22421,11 +22427,11 @@
       <c r="Z241" s="2"/>
       <c r="AA241" s="2"/>
       <c r="AB241" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AC241" s="2"/>
     </row>
-    <row r="242" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>7</v>
       </c>
@@ -22433,13 +22439,13 @@
         <v>240</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F242" s="2">
         <v>22</v>
@@ -22472,13 +22478,13 @@
       <c r="Z242" s="2"/>
       <c r="AA242" s="2"/>
       <c r="AB242" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC242" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="243" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>7</v>
       </c>
@@ -22486,13 +22492,13 @@
         <v>241</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F243" s="2">
         <v>23</v>
@@ -22557,13 +22563,13 @@
       <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
       <c r="AB243" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC243" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="244" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>7</v>
       </c>
@@ -22571,13 +22577,13 @@
         <v>242</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F244" s="2">
         <v>22</v>
@@ -22610,13 +22616,13 @@
       <c r="Z244" s="2"/>
       <c r="AA244" s="2"/>
       <c r="AB244" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC244" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="245" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>7</v>
       </c>
@@ -22624,13 +22630,13 @@
         <v>243</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F245" s="2">
         <v>22</v>
@@ -22663,13 +22669,13 @@
       <c r="Z245" s="2"/>
       <c r="AA245" s="2"/>
       <c r="AB245" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC245" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="246" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>7</v>
       </c>
@@ -22677,13 +22683,13 @@
         <v>244</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F246" s="2">
         <v>22</v>
@@ -22752,13 +22758,13 @@
         <v>5</v>
       </c>
       <c r="AB246" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC246" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="247" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>7</v>
       </c>
@@ -22766,13 +22772,13 @@
         <v>245</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F247" s="2">
         <v>23</v>
@@ -22839,13 +22845,13 @@
       </c>
       <c r="AA247" s="2"/>
       <c r="AB247" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC247" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="248" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>7</v>
       </c>
@@ -22853,13 +22859,13 @@
         <v>246</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F248" s="2">
         <v>23</v>
@@ -22926,13 +22932,13 @@
       </c>
       <c r="AA248" s="2"/>
       <c r="AB248" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AC248" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="249" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>7</v>
       </c>
@@ -22940,13 +22946,13 @@
         <v>247</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F249" s="2">
         <v>23</v>
@@ -22979,13 +22985,13 @@
       <c r="Z249" s="2"/>
       <c r="AA249" s="2"/>
       <c r="AB249" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC249" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="250" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>7</v>
       </c>
@@ -22993,13 +22999,13 @@
         <v>248</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F250" s="2">
         <v>24</v>
@@ -23062,13 +23068,13 @@
       <c r="Z250" s="2"/>
       <c r="AA250" s="2"/>
       <c r="AB250" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AC250" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="251" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>7</v>
       </c>
@@ -23076,13 +23082,13 @@
         <v>249</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F251" s="2">
         <v>23</v>
@@ -23145,13 +23151,13 @@
       <c r="Z251" s="2"/>
       <c r="AA251" s="2"/>
       <c r="AB251" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC251" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="252" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>7</v>
       </c>
@@ -23159,13 +23165,13 @@
         <v>250</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F252" s="2">
         <v>22</v>
@@ -23228,13 +23234,13 @@
       <c r="Z252" s="2"/>
       <c r="AA252" s="2"/>
       <c r="AB252" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AC252" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="253" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>7</v>
       </c>
@@ -23242,13 +23248,13 @@
         <v>251</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F253" s="2">
         <v>23</v>
@@ -23313,13 +23319,13 @@
       <c r="Z253" s="2"/>
       <c r="AA253" s="2"/>
       <c r="AB253" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC253" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="254" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>7</v>
       </c>
@@ -23327,13 +23333,13 @@
         <v>252</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F254" s="2">
         <v>23</v>
@@ -23366,11 +23372,11 @@
       <c r="Z254" s="2"/>
       <c r="AA254" s="2"/>
       <c r="AB254" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AC254" s="2"/>
     </row>
-    <row r="255" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>7</v>
       </c>
@@ -23378,13 +23384,13 @@
         <v>253</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F255" s="2">
         <v>22</v>
@@ -23449,10 +23455,10 @@
       <c r="Z255" s="2"/>
       <c r="AA255" s="2"/>
       <c r="AB255" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC255" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
